--- a/userlist.xlsx
+++ b/userlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dxadmin\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89C3D3FF-F6E2-4E20-8856-383FDDAD7A53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E4312F-AA07-4F5A-93ED-1EE5BE7AA07A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{341AD892-52C5-4755-90E2-6BA004F6E9D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{341AD892-52C5-4755-90E2-6BA004F6E9D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -483,7 +483,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,8 +567,8 @@
         <v>20</v>
       </c>
       <c r="C2" t="str">
-        <f>LEFT(A2,1)&amp;RIGHT(B2,(LEN(B2)-1))</f>
-        <v>Jmith</v>
+        <f>LEFT(A2,1)&amp;B2</f>
+        <v>JSmith</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>

--- a/userlist.xlsx
+++ b/userlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dxadmin\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E4312F-AA07-4F5A-93ED-1EE5BE7AA07A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E397D158-7A07-4C5B-B5A7-F3AA0406AB87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{341AD892-52C5-4755-90E2-6BA004F6E9D7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>First</t>
   </si>
@@ -129,16 +129,45 @@
   </si>
   <si>
     <t>123-456-7893</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Self-Supervisor</t>
+  </si>
+  <si>
+    <t>Initials</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>john.smith@company.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -161,13 +190,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -480,16 +512,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA00F54-D491-40F8-A0CA-277F1B287132}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -498,9 +532,10 @@
     <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,55 +546,67 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O1" t="s">
         <v>14</v>
       </c>
       <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
       <c r="S1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" t="s">
         <v>18</v>
       </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -570,56 +617,72 @@
         <f>LEFT(A2,1)&amp;B2</f>
         <v>JSmith</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
+      <c r="D2" t="str">
+        <f>LEFT(A2,1)&amp;LEFT(B2,1)</f>
+        <v>JS</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
       </c>
       <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>101</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2">
+        <v>101</v>
+      </c>
+      <c r="K2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2">
-        <v>101</v>
+      <c r="L2" t="s">
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="N2">
+        <v>8675309</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s">
         <v>30</v>
       </c>
-      <c r="Q2">
-        <v>8675309</v>
-      </c>
-      <c r="R2">
-        <v>101</v>
-      </c>
       <c r="S2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" t="s">
         <v>31</v>
+      </c>
+      <c r="U2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="W2" r:id="rId1" xr:uid="{35EA3B32-A4FE-458C-B595-EF1BDE5E67F9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>